--- a/ExU/Documentation/FP1-log-G47-7150-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G47-7150-350-1201.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachi\Downloads\ensc350-finalproject\ExU\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72413c9344ab976d/Desktop/FP1.2-350-1201/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BAAFF-3304-4225-8E82-6E9FC514FC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{0CF44A28-71CF-49B5-9D2D-55D1DA157DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{704B89B8-A88D-4E5A-A5AB-89607D617378}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -125,15 +125,6 @@
     <t>Tried to fix Zero signal issue but no luck. Will work later today. Heading off!</t>
   </si>
   <si>
-    <t>able to synthesize in quartus and taken screenshots of rtl view for adder and arithview</t>
-  </si>
-  <si>
-    <t>Forgot to take post fit images. Took them now and saved in folder</t>
-  </si>
-  <si>
-    <t>Taking necessary screenshots for the post fit to better describe the image</t>
-  </si>
-  <si>
     <t>Updated Overflow  conditions in adder.vhd - DONE</t>
   </si>
   <si>
@@ -144,6 +135,72 @@
   </si>
   <si>
     <t>Figured out the issue with signals. Fixed it - DONE</t>
+  </si>
+  <si>
+    <t>able to synthesize in quartus</t>
+  </si>
+  <si>
+    <t>Replaced the .vho and .sdo files to ArithUnit.vho and ArithUnit.sdo and moved them to ModelSim directory</t>
+  </si>
+  <si>
+    <t>Renamed summary files for ArithUnit and moved them to documentation directory</t>
+  </si>
+  <si>
+    <t>Used the RTL netlist viewer to capture image of adder circuit and saved it</t>
+  </si>
+  <si>
+    <t>Verified that quartus named the architecture "structure"</t>
+  </si>
+  <si>
+    <t>Forgot to take post fit images. Accidentally closed the quartus. So, redoing above steps to able to take screenshots</t>
+  </si>
+  <si>
+    <t>Took multiple post fit images of adder</t>
+  </si>
+  <si>
+    <t>Took multiple post fit images of arithUnit and moved them to documentation directory</t>
+  </si>
+  <si>
+    <t>Started Timing simulation - Adder .vho to project and ran the script. Found errors.</t>
+  </si>
+  <si>
+    <t>After re synthesizing, forgot to rename .vho, .sdo and summary files. Re did it and ran the script again - worked</t>
+  </si>
+  <si>
+    <t>Found measurement errors and tried to fix the code and run the script - worked.</t>
+  </si>
+  <si>
+    <t>Checked the TimeArithUnitTranscript.txt file for any errors on last script.</t>
+  </si>
+  <si>
+    <t>Verified measurement #120 for this wave</t>
+  </si>
+  <si>
+    <t>Took screenshots of timing waves waveTAU#.png and saved at appropriate folder</t>
+  </si>
+  <si>
+    <t>Reviewed teammate's work on logicUnit and checked the report</t>
+  </si>
+  <si>
+    <t>Resolved few errors found by teammate in arithUnit.vhd and re arranged files - DONE</t>
+  </si>
+  <si>
+    <t>Pre submission checking. Found a problem where there are no output text files for model sim simulations</t>
+  </si>
+  <si>
+    <t>issue fixed by teammate, verifying the code.</t>
+  </si>
+  <si>
+    <t>isn't fixed yet. Teammate Working on fixing it. Continuing on testing arithUnit.vhd - DONE</t>
+  </si>
+  <si>
+    <t>Verified most of the code. Teammates are working on finishing the doc. Feeling a bit sick so I'm heading off.</t>
+  </si>
+  <si>
+    <t>Used the RTL netlist viewer to capture image of Arith circuit and saved it</t>
+  </si>
+  <si>
+    <t>Verifying the changes made by teammates, fixing local model sim issues</t>
   </si>
 </sst>
 </file>
@@ -368,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +468,7 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
-  <dimension ref="A1:G756"/>
+  <dimension ref="A1:H756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,17 +807,17 @@
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -960,7 +1018,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1103,7 @@
         <v>0.85902777777777783</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1062,7 +1120,7 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,7 +1222,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1178,10 +1236,10 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="E28" s="22">
-        <v>0.45624999999999999</v>
+        <v>0.4458333333333333</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,14 +1249,14 @@
       <c r="C29" s="9">
         <v>43926</v>
       </c>
-      <c r="D29" s="19">
-        <v>0.54166666666666663</v>
+      <c r="D29" s="16">
+        <v>0.45833333333333331</v>
       </c>
       <c r="E29" s="22">
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>28</v>
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1208,14 +1266,14 @@
       <c r="C30" s="9">
         <v>43926</v>
       </c>
-      <c r="D30" s="19">
-        <v>0.5625</v>
+      <c r="D30" s="16">
+        <v>0.46458333333333335</v>
       </c>
       <c r="E30" s="22">
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>29</v>
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1225,9 +1283,15 @@
       <c r="C31" s="9">
         <v>43926</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="22"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -1236,180 +1300,307 @@
       <c r="C32" s="9">
         <v>43926</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="22"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>7150</v>
       </c>
       <c r="C33" s="9">
         <v>43926</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="22"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="19">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>7150</v>
       </c>
       <c r="C34" s="9">
         <v>43926</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="22"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>7150</v>
       </c>
       <c r="C35" s="9">
         <v>43926</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="22"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="16">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <v>7150</v>
       </c>
       <c r="C36" s="9">
         <v>43926</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="22"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="16">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <v>7150</v>
       </c>
       <c r="C37" s="9">
         <v>43926</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="22"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>7150</v>
       </c>
       <c r="C38" s="9">
         <v>43926</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="22"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="19">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="E38" s="22">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <v>7150</v>
       </c>
       <c r="C39" s="9">
         <v>43926</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="22"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <v>7150</v>
       </c>
       <c r="C40" s="9">
         <v>43926</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="22"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="19">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <v>7150</v>
       </c>
       <c r="C41" s="9">
         <v>43926</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="22"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="19">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="E41" s="22">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <v>7150</v>
       </c>
       <c r="C42" s="9">
         <v>43926</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="22"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="19">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <v>7150</v>
       </c>
       <c r="C43" s="9">
         <v>43926</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="22"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="16">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <v>7150</v>
       </c>
       <c r="C44" s="9">
         <v>43926</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="22"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="16">
+        <v>0.65625</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <v>7150</v>
       </c>
       <c r="C45" s="9">
         <v>43926</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="22"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="22"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="22"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="22"/>
-      <c r="G48" s="13"/>
+      <c r="D45" s="16">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
+        <v>7150</v>
+      </c>
+      <c r="C46" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
+        <v>7150</v>
+      </c>
+      <c r="C47" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
+        <v>7150</v>
+      </c>
+      <c r="C48" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="22"/>
-      <c r="G49" s="13"/>
+      <c r="B49" s="12">
+        <v>7150</v>
+      </c>
+      <c r="C49" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="50" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>

--- a/ExU/Documentation/FP1-log-G47-7150-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G47-7150-350-1201.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72413c9344ab976d/Desktop/FP1.2-350-1201/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin-Desktop\Documents\Projects\ensc350-finalproject\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{0CF44A28-71CF-49B5-9D2D-55D1DA157DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{704B89B8-A88D-4E5A-A5AB-89607D617378}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC0655-97DF-45C2-AAB4-DF0F998FBC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="15330" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Verifying the changes made by teammates, fixing local model sim issues</t>
+  </si>
+  <si>
+    <t>Sachin Momuli</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:H756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +810,9 @@
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
@@ -815,7 +820,9 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="25">
+        <v>301297150</v>
+      </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
@@ -824,7 +831,9 @@
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>47</v>
+      </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
